--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8477,6 +8477,62 @@
         <v>3759.13</v>
       </c>
     </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C578" t="s">
+        <v>3</v>
+      </c>
+      <c r="D578">
+        <v>5812.21</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C579" t="s">
+        <v>4</v>
+      </c>
+      <c r="D579">
+        <v>73.17</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C580" t="s">
+        <v>5</v>
+      </c>
+      <c r="D580">
+        <v>2775.96</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C581" t="s">
+        <v>6</v>
+      </c>
+      <c r="D581">
+        <v>3695.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D581"/>
+  <dimension ref="A1:D585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8533,6 +8533,62 @@
         <v>3695.31</v>
       </c>
     </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C582" t="s">
+        <v>3</v>
+      </c>
+      <c r="D582">
+        <v>5861.9</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C583" t="s">
+        <v>4</v>
+      </c>
+      <c r="D583">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C584" t="s">
+        <v>5</v>
+      </c>
+      <c r="D584">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C585" t="s">
+        <v>6</v>
+      </c>
+      <c r="D585">
+        <v>3750.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D585"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8589,6 +8589,62 @@
         <v>3750.75</v>
       </c>
     </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C586" t="s">
+        <v>3</v>
+      </c>
+      <c r="D586">
+        <v>5900.12</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C587" t="s">
+        <v>4</v>
+      </c>
+      <c r="D587">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C588" t="s">
+        <v>5</v>
+      </c>
+      <c r="D588">
+        <v>2807.33</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C589" t="s">
+        <v>6</v>
+      </c>
+      <c r="D589">
+        <v>3810.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8645,6 +8645,62 @@
         <v>3810.17</v>
       </c>
     </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C590" t="s">
+        <v>3</v>
+      </c>
+      <c r="D590">
+        <v>6030.71</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C591" t="s">
+        <v>4</v>
+      </c>
+      <c r="D591">
+        <v>72.81</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C592" t="s">
+        <v>5</v>
+      </c>
+      <c r="D592">
+        <v>2853.21</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C593" t="s">
+        <v>6</v>
+      </c>
+      <c r="D593">
+        <v>3905.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D593"/>
+  <dimension ref="A1:D597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8701,6 +8701,62 @@
         <v>3905.7</v>
       </c>
     </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C594" t="s">
+        <v>3</v>
+      </c>
+      <c r="D594">
+        <v>5966.82</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C595" t="s">
+        <v>4</v>
+      </c>
+      <c r="D595">
+        <v>72.26000000000001</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C596" t="s">
+        <v>5</v>
+      </c>
+      <c r="D596">
+        <v>2872.67</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C597" t="s">
+        <v>6</v>
+      </c>
+      <c r="D597">
+        <v>3895.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D597"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8757,6 +8757,62 @@
         <v>3895.1</v>
       </c>
     </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C598" t="s">
+        <v>3</v>
+      </c>
+      <c r="D598">
+        <v>6032.48</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C599" t="s">
+        <v>4</v>
+      </c>
+      <c r="D599">
+        <v>72.15000000000001</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C600" t="s">
+        <v>5</v>
+      </c>
+      <c r="D600">
+        <v>2837.12</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C601" t="s">
+        <v>6</v>
+      </c>
+      <c r="D601">
+        <v>3801.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:D605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8813,6 +8813,62 @@
         <v>3801.61</v>
       </c>
     </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C602" t="s">
+        <v>3</v>
+      </c>
+      <c r="D602">
+        <v>6013.6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C603" t="s">
+        <v>4</v>
+      </c>
+      <c r="D603">
+        <v>71.01000000000001</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C604" t="s">
+        <v>5</v>
+      </c>
+      <c r="D604">
+        <v>2796.08</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C605" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605">
+        <v>3821.93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D605"/>
+  <dimension ref="A1:D609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8869,6 +8869,62 @@
         <v>3821.93</v>
       </c>
     </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C606" t="s">
+        <v>3</v>
+      </c>
+      <c r="D606">
+        <v>6065.07</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C607" t="s">
+        <v>4</v>
+      </c>
+      <c r="D607">
+        <v>71.98999999999999</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C608" t="s">
+        <v>5</v>
+      </c>
+      <c r="D608">
+        <v>2844.83</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C609" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609">
+        <v>4006.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D609"/>
+  <dimension ref="A1:D613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8925,6 +8925,62 @@
         <v>4006.76</v>
       </c>
     </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C610" t="s">
+        <v>3</v>
+      </c>
+      <c r="D610">
+        <v>6223.49</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C611" t="s">
+        <v>4</v>
+      </c>
+      <c r="D611">
+        <v>73.70999999999999</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C612" t="s">
+        <v>5</v>
+      </c>
+      <c r="D612">
+        <v>2959.39</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C613" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613">
+        <v>4301.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D613"/>
+  <dimension ref="A1:D617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8981,6 +8981,62 @@
         <v>4301.02</v>
       </c>
     </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C614" t="s">
+        <v>3</v>
+      </c>
+      <c r="D614">
+        <v>5962.88</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C615" t="s">
+        <v>4</v>
+      </c>
+      <c r="D615">
+        <v>71.18000000000001</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C616" t="s">
+        <v>5</v>
+      </c>
+      <c r="D616">
+        <v>2825.22</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C617" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617">
+        <v>3993.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D617"/>
+  <dimension ref="A1:D621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9037,6 +9037,62 @@
         <v>3993.53</v>
       </c>
     </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C618" t="s">
+        <v>3</v>
+      </c>
+      <c r="D618">
+        <v>5919.3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C619" t="s">
+        <v>4</v>
+      </c>
+      <c r="D619">
+        <v>69.68000000000001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C620" t="s">
+        <v>5</v>
+      </c>
+      <c r="D620">
+        <v>2767.12</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C621" t="s">
+        <v>6</v>
+      </c>
+      <c r="D621">
+        <v>3873.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D621"/>
+  <dimension ref="A1:D625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9093,6 +9093,62 @@
         <v>3873.96</v>
       </c>
     </row>
+    <row r="622" spans="1:4">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C622" t="s">
+        <v>3</v>
+      </c>
+      <c r="D622">
+        <v>5739.26</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C623" t="s">
+        <v>4</v>
+      </c>
+      <c r="D623">
+        <v>68.40000000000001</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C624" t="s">
+        <v>5</v>
+      </c>
+      <c r="D624">
+        <v>2673.42</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C625" t="s">
+        <v>6</v>
+      </c>
+      <c r="D625">
+        <v>3671.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D625"/>
+  <dimension ref="A1:D629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9149,6 +9149,62 @@
         <v>3671.05</v>
       </c>
     </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C626" t="s">
+        <v>3</v>
+      </c>
+      <c r="D626">
+        <v>5694.79</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C627" t="s">
+        <v>4</v>
+      </c>
+      <c r="D627">
+        <v>68.18000000000001</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C628" t="s">
+        <v>5</v>
+      </c>
+      <c r="D628">
+        <v>2732.76</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C629" t="s">
+        <v>6</v>
+      </c>
+      <c r="D629">
+        <v>3702.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D629"/>
+  <dimension ref="A1:D633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9205,6 +9205,62 @@
         <v>3702.73</v>
       </c>
     </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C630" t="s">
+        <v>3</v>
+      </c>
+      <c r="D630">
+        <v>5731.75</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C631" t="s">
+        <v>4</v>
+      </c>
+      <c r="D631">
+        <v>68.98</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C632" t="s">
+        <v>5</v>
+      </c>
+      <c r="D632">
+        <v>2736.18</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C633" t="s">
+        <v>6</v>
+      </c>
+      <c r="D633">
+        <v>3719.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D633"/>
+  <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9261,6 +9261,62 @@
         <v>3719.87</v>
       </c>
     </row>
+    <row r="634" spans="1:4">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C634" t="s">
+        <v>3</v>
+      </c>
+      <c r="D634">
+        <v>5718.64</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C635" t="s">
+        <v>4</v>
+      </c>
+      <c r="D635">
+        <v>69.23</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C636" t="s">
+        <v>5</v>
+      </c>
+      <c r="D636">
+        <v>2756.67</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C637" t="s">
+        <v>6</v>
+      </c>
+      <c r="D637">
+        <v>3752.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillkuznecov/Documents/Документы/macro_parser/LME/parser_beta/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C7147-6E45-074B-9566-91E87B5BDAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cb_metall" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -40,11 +46,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,17 +110,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,9 +166,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +200,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,9 +252,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +445,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D637"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D641"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
+      <selection activeCell="E650" sqref="E650"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -427,7 +482,7 @@
         <v>4048.78</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -441,7 +496,7 @@
         <v>53.37</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -455,7 +510,7 @@
         <v>2237.21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -469,7 +524,7 @@
         <v>3727.93</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -483,7 +538,7 @@
         <v>4129.34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -497,7 +552,7 @@
         <v>54.43</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -508,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>2281.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2281.7199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -525,7 +580,7 @@
         <v>3802.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -539,7 +594,7 @@
         <v>4173.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -553,7 +608,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -567,7 +622,7 @@
         <v>2353.48</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -581,7 +636,7 @@
         <v>4153.88</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -595,7 +650,7 @@
         <v>4101.62</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -609,7 +664,7 @@
         <v>53.95</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -623,7 +678,7 @@
         <v>2331.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -637,7 +692,7 @@
         <v>4013.99</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -648,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>4186.35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4186.3500000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -665,7 +720,7 @@
         <v>53.01</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -676,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>2425.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>2425.1999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -693,7 +748,7 @@
         <v>4032.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -704,10 +759,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>4204.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>4204.8500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -721,7 +776,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -735,7 +790,7 @@
         <v>2443.89</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -749,7 +804,7 @@
         <v>4012.72</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -763,7 +818,7 @@
         <v>4168.82</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -777,7 +832,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -788,10 +843,10 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>2405.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>2405.4499999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -805,7 +860,7 @@
         <v>3998.73</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -819,7 +874,7 @@
         <v>4080.03</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -833,7 +888,7 @@
         <v>52.02</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -844,10 +899,10 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>2397.01</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>2397.0100000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -861,7 +916,7 @@
         <v>3843.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -875,7 +930,7 @@
         <v>4089.96</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -889,7 +944,7 @@
         <v>51.49</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -900,10 +955,10 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>2350.72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>2350.7199999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -917,7 +972,7 @@
         <v>3860.65</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -931,7 +986,7 @@
         <v>4187.24</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -945,7 +1000,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -959,7 +1014,7 @@
         <v>2320.69</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -973,7 +1028,7 @@
         <v>3818.06</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -987,7 +1042,7 @@
         <v>4231.99</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1001,7 +1056,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1015,7 +1070,7 @@
         <v>2337.86</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1029,7 +1084,7 @@
         <v>3874.36</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1043,7 +1098,7 @@
         <v>4237.75</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1057,7 +1112,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1071,7 +1126,7 @@
         <v>2331.67</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1085,7 +1140,7 @@
         <v>3826.33</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1099,7 +1154,7 @@
         <v>4251.41</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1113,7 +1168,7 @@
         <v>53.53</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1124,10 +1179,10 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <v>2363.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>2363.9899999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1141,7 +1196,7 @@
         <v>3935.55</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1155,7 +1210,7 @@
         <v>4235.59</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1169,7 +1224,7 @@
         <v>51.76</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1183,7 +1238,7 @@
         <v>2262.84</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1197,7 +1252,7 @@
         <v>3715.47</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1208,10 +1263,10 @@
         <v>3</v>
       </c>
       <c r="D58">
-        <v>4247.23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>4247.2299999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1225,7 +1280,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1239,7 +1294,7 @@
         <v>2259.42</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1253,7 +1308,7 @@
         <v>3819.39</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1264,10 +1319,10 @@
         <v>3</v>
       </c>
       <c r="D62">
-        <v>4232.69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>4232.6899999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1281,7 +1336,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1292,10 +1347,10 @@
         <v>5</v>
       </c>
       <c r="D64">
-        <v>2292.24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>2292.2399999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1309,7 +1364,7 @@
         <v>3775.46</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1320,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="D66">
-        <v>4258.35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>4258.3500000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1337,7 +1392,7 @@
         <v>52.57</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1351,7 +1406,7 @@
         <v>2323.44</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1365,7 +1420,7 @@
         <v>3777.81</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1379,7 +1434,7 @@
         <v>4291.13</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1393,7 +1448,7 @@
         <v>52.07</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1407,7 +1462,7 @@
         <v>2309.14</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1421,7 +1476,7 @@
         <v>3849.3</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1432,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>4307.9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>4307.8999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1449,7 +1504,7 @@
         <v>52.86</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1463,7 +1518,7 @@
         <v>2300.58</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1477,7 +1532,7 @@
         <v>3783.02</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1491,7 +1546,7 @@
         <v>4302.74</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1505,7 +1560,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1519,7 +1574,7 @@
         <v>2259.83</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1533,7 +1588,7 @@
         <v>3673.9</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1547,7 +1602,7 @@
         <v>4362.29</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1561,7 +1616,7 @@
         <v>53.58</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1575,7 +1630,7 @@
         <v>2296.66</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1589,7 +1644,7 @@
         <v>3695.51</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1600,10 +1655,10 @@
         <v>3</v>
       </c>
       <c r="D86">
-        <v>4337.36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>4337.3599999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1617,7 +1672,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1631,7 +1686,7 @@
         <v>2263.48</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1645,7 +1700,7 @@
         <v>3647.72</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1656,10 +1711,10 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>4336.9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>4336.8999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1673,7 +1728,7 @@
         <v>52.91</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1687,7 +1742,7 @@
         <v>2269.9</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1701,7 +1756,7 @@
         <v>3796.67</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1715,7 +1770,7 @@
         <v>4348.54</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1729,7 +1784,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1743,7 +1798,7 @@
         <v>2335.33</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1757,7 +1812,7 @@
         <v>3801.7</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1768,10 +1823,10 @@
         <v>3</v>
       </c>
       <c r="D98">
-        <v>4256.69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>4256.6899999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1785,7 +1840,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1799,7 +1854,7 @@
         <v>2281.16</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1813,7 +1868,7 @@
         <v>3688.44</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1827,7 +1882,7 @@
         <v>4269.59</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1841,7 +1896,7 @@
         <v>51.01</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1855,7 +1910,7 @@
         <v>2233.66</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1869,7 +1924,7 @@
         <v>3582.97</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1883,7 +1938,7 @@
         <v>4304.91</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1897,7 +1952,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1911,7 +1966,7 @@
         <v>2232.19</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1925,7 +1980,7 @@
         <v>3764.81</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1939,7 +1994,7 @@
         <v>4388.79</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1953,7 +2008,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1964,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="D112">
-        <v>2308.47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>2308.4699999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1981,7 +2036,7 @@
         <v>3890.42</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1995,7 +2050,7 @@
         <v>4397.7</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2009,7 +2064,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2020,10 +2075,10 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <v>2274.8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>2274.8000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2037,7 +2092,7 @@
         <v>3854.52</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2051,7 +2106,7 @@
         <v>4402.43</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2065,7 +2120,7 @@
         <v>52.35</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2079,7 +2134,7 @@
         <v>2286.79</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2093,7 +2148,7 @@
         <v>3676.39</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2107,7 +2162,7 @@
         <v>4407.74</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2121,7 +2176,7 @@
         <v>52.21</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2135,7 +2190,7 @@
         <v>2241.81</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2149,7 +2204,7 @@
         <v>3692.81</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2163,7 +2218,7 @@
         <v>4446.47</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2177,7 +2232,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2191,7 +2246,7 @@
         <v>2271.31</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2205,7 +2260,7 @@
         <v>3769.61</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2219,7 +2274,7 @@
         <v>4401.67</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2233,7 +2288,7 @@
         <v>51.61</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2247,7 +2302,7 @@
         <v>2225.84</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2261,7 +2316,7 @@
         <v>3480.57</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2275,7 +2330,7 @@
         <v>4395.97</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2289,7 +2344,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2303,7 +2358,7 @@
         <v>2192.04</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2317,7 +2372,7 @@
         <v>3528.41</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2331,7 +2386,7 @@
         <v>4365.8</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2345,7 +2400,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2359,7 +2414,7 @@
         <v>2173.44</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2373,7 +2428,7 @@
         <v>3525.58</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2387,7 +2442,7 @@
         <v>4442.45</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2401,7 +2456,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2412,10 +2467,10 @@
         <v>5</v>
       </c>
       <c r="D144">
-        <v>2252.76</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>2252.7600000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2429,7 +2484,7 @@
         <v>3646.29</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2443,7 +2498,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2457,7 +2512,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2471,7 +2526,7 @@
         <v>2243.41</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2485,7 +2540,7 @@
         <v>3662.96</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2499,7 +2554,7 @@
         <v>4391.92</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2513,7 +2568,7 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2527,7 +2582,7 @@
         <v>2250.59</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2541,7 +2596,7 @@
         <v>3380.73</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2555,7 +2610,7 @@
         <v>4379.07</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2569,7 +2624,7 @@
         <v>49.92</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2583,7 +2638,7 @@
         <v>2287.48</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2597,7 +2652,7 @@
         <v>3527.53</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2611,7 +2666,7 @@
         <v>4414.41</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2625,7 +2680,7 @@
         <v>49.66</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2639,7 +2694,7 @@
         <v>2300.83</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2653,7 +2708,7 @@
         <v>3418.59</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2664,10 +2719,10 @@
         <v>3</v>
       </c>
       <c r="D162">
-        <v>4467.81</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>4467.8100000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2681,7 +2736,7 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2692,10 +2747,10 @@
         <v>5</v>
       </c>
       <c r="D164">
-        <v>2329.45</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>2329.4499999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2709,7 +2764,7 @@
         <v>3435.94</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2723,7 +2778,7 @@
         <v>4454.75</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2737,7 +2792,7 @@
         <v>50.46</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2751,7 +2806,7 @@
         <v>2312.04</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2765,7 +2820,7 @@
         <v>3447.44</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2776,10 +2831,10 @@
         <v>3</v>
       </c>
       <c r="D170">
-        <v>4467.56</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>4467.5600000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2793,7 +2848,7 @@
         <v>51.17</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2807,7 +2862,7 @@
         <v>2373.12</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2821,7 +2876,7 @@
         <v>3520.86</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2835,7 +2890,7 @@
         <v>4485.83</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2849,7 +2904,7 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2863,7 +2918,7 @@
         <v>2341.11</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2877,7 +2932,7 @@
         <v>3444.95</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2891,7 +2946,7 @@
         <v>4432.37</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2905,7 +2960,7 @@
         <v>49.06</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2919,7 +2974,7 @@
         <v>2303.67</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2933,7 +2988,7 @@
         <v>3433.54</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2947,7 +3002,7 @@
         <v>4471.45</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2961,7 +3016,7 @@
         <v>49.12</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2975,7 +3030,7 @@
         <v>2326.79</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2989,7 +3044,7 @@
         <v>3322.94</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3003,7 +3058,7 @@
         <v>4515.62</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3017,7 +3072,7 @@
         <v>48.74</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3031,7 +3086,7 @@
         <v>2312.09</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3045,7 +3100,7 @@
         <v>3369.88</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3059,7 +3114,7 @@
         <v>4620.57</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3073,7 +3128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3084,10 +3139,10 @@
         <v>5</v>
       </c>
       <c r="D192">
-        <v>2388.49</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>2388.4899999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3101,7 +3156,7 @@
         <v>3461.86</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3115,7 +3170,7 @@
         <v>4645.42</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3129,7 +3184,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3143,7 +3198,7 @@
         <v>2398.75</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3157,7 +3212,7 @@
         <v>3640.74</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3168,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="D198">
-        <v>4725.06</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>4725.0600000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3185,7 +3240,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3199,7 +3254,7 @@
         <v>2370.64</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3213,7 +3268,7 @@
         <v>3530.16</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3224,10 +3279,10 @@
         <v>3</v>
       </c>
       <c r="D202">
-        <v>4735.52</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>4735.5200000000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3241,7 +3296,7 @@
         <v>54.21</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3252,10 +3307,10 @@
         <v>5</v>
       </c>
       <c r="D204">
-        <v>2374.22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>2374.2199999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3269,7 +3324,7 @@
         <v>3539.17</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3283,7 +3338,7 @@
         <v>4872.66</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3297,7 +3352,7 @@
         <v>54.35</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3308,10 +3363,10 @@
         <v>5</v>
       </c>
       <c r="D208">
-        <v>2431.24</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>2431.2399999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3325,7 +3380,7 @@
         <v>3449.43</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3339,7 +3394,7 @@
         <v>4865.03</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3353,7 +3408,7 @@
         <v>55.57</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3364,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="D212">
-        <v>2433.32</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>2433.3200000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3381,7 +3436,7 @@
         <v>3453.58</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3392,10 +3447,10 @@
         <v>3</v>
       </c>
       <c r="D214">
-        <v>4830.86</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>4830.8599999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3409,7 +3464,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3423,7 +3478,7 @@
         <v>2432.13</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3437,7 +3492,7 @@
         <v>3478.72</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3448,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="D218">
-        <v>4782.4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>4782.3999999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3465,7 +3520,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3476,10 +3531,10 @@
         <v>5</v>
       </c>
       <c r="D220">
-        <v>2416.53</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>2416.5300000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3493,7 +3548,7 @@
         <v>3503.36</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3507,7 +3562,7 @@
         <v>4861.51</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3521,7 +3576,7 @@
         <v>56.28</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3532,10 +3587,10 @@
         <v>5</v>
       </c>
       <c r="D224">
-        <v>2430.82</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>2430.8200000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3549,7 +3604,7 @@
         <v>3527.02</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3560,10 +3615,10 @@
         <v>3</v>
       </c>
       <c r="D226">
-        <v>4908.06</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>4908.0600000000004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3577,7 +3632,7 @@
         <v>57.04</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3591,7 +3646,7 @@
         <v>2402.58</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3605,7 +3660,7 @@
         <v>3490.63</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -3619,7 +3674,7 @@
         <v>4792.74</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -3633,7 +3688,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -3644,10 +3699,10 @@
         <v>5</v>
       </c>
       <c r="D232">
-        <v>2403.45</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>2403.4499999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3661,7 +3716,7 @@
         <v>3462.34</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3672,10 +3727,10 @@
         <v>3</v>
       </c>
       <c r="D234">
-        <v>4857.86</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>4857.8599999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3689,7 +3744,7 @@
         <v>57.03</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3703,7 +3758,7 @@
         <v>2390.75</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3717,7 +3772,7 @@
         <v>3504.46</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3728,10 +3783,10 @@
         <v>3</v>
       </c>
       <c r="D238">
-        <v>4870.02</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>4870.0200000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3745,7 +3800,7 @@
         <v>57.63</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3756,10 +3811,10 @@
         <v>5</v>
       </c>
       <c r="D240">
-        <v>2384.2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>2384.1999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3773,7 +3828,7 @@
         <v>3546.56</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -3784,10 +3839,10 @@
         <v>3</v>
       </c>
       <c r="D242">
-        <v>4886.98</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>4886.9799999999996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -3801,7 +3856,7 @@
         <v>58.94</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -3812,10 +3867,10 @@
         <v>5</v>
       </c>
       <c r="D244">
-        <v>2428.82</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>2428.8200000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -3829,7 +3884,7 @@
         <v>3716.57</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3843,7 +3898,7 @@
         <v>4961.49</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -3857,7 +3912,7 @@
         <v>59.86</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3871,7 +3926,7 @@
         <v>2458.56</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -3885,7 +3940,7 @@
         <v>3734.21</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -3899,7 +3954,7 @@
         <v>5060.12</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -3913,7 +3968,7 @@
         <v>61.04</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -3927,7 +3982,7 @@
         <v>2525.85</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -3941,7 +3996,7 @@
         <v>3781.12</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -3955,7 +4010,7 @@
         <v>5136.25</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -3969,7 +4024,7 @@
         <v>61.38</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -3980,10 +4035,10 @@
         <v>5</v>
       </c>
       <c r="D256">
-        <v>2583.97</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>2583.9699999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -3997,7 +4052,7 @@
         <v>3787.78</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4011,7 +4066,7 @@
         <v>5267.29</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4025,7 +4080,7 @@
         <v>64.17</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4039,7 +4094,7 @@
         <v>2635.14</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4053,7 +4108,7 @@
         <v>3804.87</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4067,7 +4122,7 @@
         <v>5303.4</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -4081,7 +4136,7 @@
         <v>66.06</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -4095,7 +4150,7 @@
         <v>2646.53</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -4109,7 +4164,7 @@
         <v>3828.07</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -4123,7 +4178,7 @@
         <v>5261.26</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -4137,7 +4192,7 @@
         <v>65.53</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -4151,7 +4206,7 @@
         <v>2625.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -4165,7 +4220,7 @@
         <v>3797.65</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -4179,7 +4234,7 @@
         <v>5289.31</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -4193,7 +4248,7 @@
         <v>65.88</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -4207,7 +4262,7 @@
         <v>2639.5</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -4221,7 +4276,7 @@
         <v>3817.9</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -4235,7 +4290,7 @@
         <v>5285.85</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -4249,7 +4304,7 @@
         <v>66.13</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -4263,7 +4318,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -4277,7 +4332,7 @@
         <v>3779.57</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -4291,7 +4346,7 @@
         <v>5273.4</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -4305,7 +4360,7 @@
         <v>66.03</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -4319,7 +4374,7 @@
         <v>2678.45</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -4333,7 +4388,7 @@
         <v>3812.86</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -4347,7 +4402,7 @@
         <v>5367.82</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -4361,7 +4416,7 @@
         <v>67.14</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -4375,7 +4430,7 @@
         <v>2714.76</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -4389,7 +4444,7 @@
         <v>3883.48</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -4403,7 +4458,7 @@
         <v>5299.71</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -4417,7 +4472,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -4431,7 +4486,7 @@
         <v>2737.24</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -4445,7 +4500,7 @@
         <v>3894.6</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -4459,7 +4514,7 @@
         <v>5235.5</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -4473,7 +4528,7 @@
         <v>66.61</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -4487,7 +4542,7 @@
         <v>2767.89</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -4501,7 +4556,7 @@
         <v>3987.86</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -4515,7 +4570,7 @@
         <v>5248.95</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -4529,7 +4584,7 @@
         <v>65.87</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -4543,7 +4598,7 @@
         <v>2816.91</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -4557,7 +4612,7 @@
         <v>4273.93</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -4571,7 +4626,7 @@
         <v>5223.41</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -4585,7 +4640,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -4599,7 +4654,7 @@
         <v>2820.91</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -4613,7 +4668,7 @@
         <v>4222.18</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -4627,7 +4682,7 @@
         <v>5258.42</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -4638,10 +4693,10 @@
         <v>4</v>
       </c>
       <c r="D303">
-        <v>66.54000000000001</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>66.540000000000006</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -4655,7 +4710,7 @@
         <v>2866.11</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -4669,7 +4724,7 @@
         <v>4238.91</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -4683,7 +4738,7 @@
         <v>5157.21</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -4697,7 +4752,7 @@
         <v>65.73</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -4711,7 +4766,7 @@
         <v>2947.5</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -4722,10 +4777,10 @@
         <v>6</v>
       </c>
       <c r="D309">
-        <v>4254.02</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
+        <v>4254.0200000000004</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -4739,7 +4794,7 @@
         <v>5186.62</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -4753,7 +4808,7 @@
         <v>65.63</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -4767,7 +4822,7 @@
         <v>2860.48</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -4781,7 +4836,7 @@
         <v>4050.82</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -4792,10 +4847,10 @@
         <v>3</v>
       </c>
       <c r="D314">
-        <v>5215.69</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
+        <v>5215.6899999999996</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -4809,7 +4864,7 @@
         <v>65.33</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -4823,7 +4878,7 @@
         <v>2834.33</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -4837,7 +4892,7 @@
         <v>3920.82</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -4851,7 +4906,7 @@
         <v>5252.3</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -4865,7 +4920,7 @@
         <v>65.16</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -4879,7 +4934,7 @@
         <v>2866.08</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -4893,7 +4948,7 @@
         <v>3956.92</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -4907,7 +4962,7 @@
         <v>5139.72</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -4921,7 +4976,7 @@
         <v>65.09</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -4935,7 +4990,7 @@
         <v>2808.45</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -4949,7 +5004,7 @@
         <v>3872.29</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -4963,7 +5018,7 @@
         <v>5096.74</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -4977,7 +5032,7 @@
         <v>63.67</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -4991,7 +5046,7 @@
         <v>2761.04</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -5005,7 +5060,7 @@
         <v>3848.49</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -5019,7 +5074,7 @@
         <v>5087.83</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -5033,7 +5088,7 @@
         <v>63.16</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -5047,7 +5102,7 @@
         <v>2674.72</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -5061,7 +5116,7 @@
         <v>3704.83</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -5075,7 +5130,7 @@
         <v>5091.13</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -5089,7 +5144,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -5103,7 +5158,7 @@
         <v>2679.14</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -5117,7 +5172,7 @@
         <v>3642.12</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -5131,7 +5186,7 @@
         <v>5050.08</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -5145,7 +5200,7 @@
         <v>63.29</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -5156,10 +5211,10 @@
         <v>5</v>
       </c>
       <c r="D340">
-        <v>2600.74</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
+        <v>2600.7399999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -5173,7 +5228,7 @@
         <v>3521.99</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -5187,7 +5242,7 @@
         <v>5005.93</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -5201,7 +5256,7 @@
         <v>63.04</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -5215,7 +5270,7 @@
         <v>2675.32</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -5229,7 +5284,7 @@
         <v>3871.2</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -5243,7 +5298,7 @@
         <v>4970.13</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -5257,7 +5312,7 @@
         <v>62.26</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -5271,7 +5326,7 @@
         <v>2739.83</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -5285,7 +5340,7 @@
         <v>3952.39</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -5299,7 +5354,7 @@
         <v>5003.93</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -5313,7 +5368,7 @@
         <v>61.77</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -5327,7 +5382,7 @@
         <v>2777.55</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -5341,7 +5396,7 @@
         <v>3988.84</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -5355,7 +5410,7 @@
         <v>5136.88</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -5369,7 +5424,7 @@
         <v>60.67</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -5383,7 +5438,7 @@
         <v>2749.13</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -5397,7 +5452,7 @@
         <v>3931.69</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -5411,7 +5466,7 @@
         <v>5193.99</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -5425,7 +5480,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -5439,7 +5494,7 @@
         <v>2728.26</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -5453,7 +5508,7 @@
         <v>3944.54</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -5464,10 +5519,10 @@
         <v>3</v>
       </c>
       <c r="D362">
-        <v>5212.6</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
+        <v>5212.6000000000004</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -5481,7 +5536,7 @@
         <v>61.76</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -5495,7 +5550,7 @@
         <v>2778.39</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -5509,7 +5564,7 @@
         <v>3949.47</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -5523,7 +5578,7 @@
         <v>5080.59</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -5537,7 +5592,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -5551,7 +5606,7 @@
         <v>2766.23</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -5565,7 +5620,7 @@
         <v>3834.12</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -5579,7 +5634,7 @@
         <v>5036.29</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -5593,7 +5648,7 @@
         <v>60.43</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -5607,7 +5662,7 @@
         <v>2741.27</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -5621,7 +5676,7 @@
         <v>3761.22</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -5635,7 +5690,7 @@
         <v>5041.43</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -5649,7 +5704,7 @@
         <v>60.81</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -5663,7 +5718,7 @@
         <v>2752.54</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -5677,7 +5732,7 @@
         <v>3901.35</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -5688,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="D378">
-        <v>5078.27</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
+        <v>5078.2700000000004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -5705,7 +5760,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -5719,7 +5774,7 @@
         <v>2768.14</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -5733,7 +5788,7 @@
         <v>3899.62</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -5747,7 +5802,7 @@
         <v>5062.8</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -5761,7 +5816,7 @@
         <v>59.54</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -5775,7 +5830,7 @@
         <v>2740.68</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -5789,7 +5844,7 @@
         <v>3753.65</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -5803,7 +5858,7 @@
         <v>5065.05</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -5817,7 +5872,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -5831,7 +5886,7 @@
         <v>2679.55</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -5845,7 +5900,7 @@
         <v>3664.45</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -5859,7 +5914,7 @@
         <v>5008.93</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -5873,7 +5928,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -5887,7 +5942,7 @@
         <v>2630.12</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -5901,7 +5956,7 @@
         <v>3635.38</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -5915,7 +5970,7 @@
         <v>5013.59</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -5929,7 +5984,7 @@
         <v>59.57</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -5943,7 +5998,7 @@
         <v>2638.19</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -5957,7 +6012,7 @@
         <v>3711.48</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -5968,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="D398">
-        <v>5053.15</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
+        <v>5053.1499999999996</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -5985,7 +6040,7 @@
         <v>60.04</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -5999,7 +6054,7 @@
         <v>2659.01</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -6013,7 +6068,7 @@
         <v>3740.77</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -6027,7 +6082,7 @@
         <v>5084.22</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -6041,7 +6096,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -6055,7 +6110,7 @@
         <v>2674.33</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -6069,7 +6124,7 @@
         <v>3689.9</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -6083,7 +6138,7 @@
         <v>5113.54</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -6097,7 +6152,7 @@
         <v>60.54</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -6111,7 +6166,7 @@
         <v>2610.92</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -6125,7 +6180,7 @@
         <v>3618.32</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -6139,7 +6194,7 @@
         <v>5133.72</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -6153,7 +6208,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -6167,7 +6222,7 @@
         <v>2610.61</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -6181,7 +6236,7 @@
         <v>3567.49</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -6195,7 +6250,7 @@
         <v>5133.5</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -6209,7 +6264,7 @@
         <v>62.45</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -6223,7 +6278,7 @@
         <v>2633.1</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -6237,7 +6292,7 @@
         <v>3710.4</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -6248,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="D418">
-        <v>5119.1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
+        <v>5119.1000000000004</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -6265,7 +6320,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -6279,7 +6334,7 @@
         <v>2656.66</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -6293,7 +6348,7 @@
         <v>3683.28</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -6307,7 +6362,7 @@
         <v>5125.91</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -6321,7 +6376,7 @@
         <v>61.92</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -6335,7 +6390,7 @@
         <v>2692.27</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -6349,7 +6404,7 @@
         <v>3684.84</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -6360,10 +6415,10 @@
         <v>3</v>
       </c>
       <c r="D426">
-        <v>5192.52</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
+        <v>5192.5200000000004</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -6377,7 +6432,7 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -6391,7 +6446,7 @@
         <v>2731.73</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -6405,7 +6460,7 @@
         <v>3724.12</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -6419,7 +6474,7 @@
         <v>5224.71</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -6433,7 +6488,7 @@
         <v>62.89</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -6447,7 +6502,7 @@
         <v>2710.13</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -6461,7 +6516,7 @@
         <v>3669.3</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -6475,7 +6530,7 @@
         <v>5251.55</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -6486,10 +6541,10 @@
         <v>4</v>
       </c>
       <c r="D435">
-        <v>65.09999999999999</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -6503,7 +6558,7 @@
         <v>2670.28</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -6517,7 +6572,7 @@
         <v>3576.51</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -6531,7 +6586,7 @@
         <v>5298.59</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -6545,7 +6600,7 @@
         <v>65.58</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -6559,7 +6614,7 @@
         <v>2689.42</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -6573,7 +6628,7 @@
         <v>3719.64</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -6587,7 +6642,7 @@
         <v>5279.51</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -6601,7 +6656,7 @@
         <v>64.31</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -6615,7 +6670,7 @@
         <v>2640.02</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -6629,7 +6684,7 @@
         <v>3765.68</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -6643,7 +6698,7 @@
         <v>5250.65</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -6657,7 +6712,7 @@
         <v>62.95</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -6671,7 +6726,7 @@
         <v>2632.92</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -6685,7 +6740,7 @@
         <v>3679.1</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -6699,7 +6754,7 @@
         <v>5291.78</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -6713,7 +6768,7 @@
         <v>64.78</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -6727,7 +6782,7 @@
         <v>2665.13</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -6741,7 +6796,7 @@
         <v>3774.92</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -6755,7 +6810,7 @@
         <v>5284.05</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -6769,7 +6824,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -6783,7 +6838,7 @@
         <v>2662.13</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -6797,7 +6852,7 @@
         <v>3772.48</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -6811,7 +6866,7 @@
         <v>5228.8</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -6825,7 +6880,7 @@
         <v>64.38</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -6839,7 +6894,7 @@
         <v>2611.08</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -6853,7 +6908,7 @@
         <v>3786.61</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -6867,7 +6922,7 @@
         <v>5176.24</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -6881,7 +6936,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -6895,7 +6950,7 @@
         <v>2550.96</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -6909,7 +6964,7 @@
         <v>3610.05</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -6923,7 +6978,7 @@
         <v>5190.3</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -6937,7 +6992,7 @@
         <v>61.15</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -6951,7 +7006,7 @@
         <v>2535.61</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -6965,7 +7020,7 @@
         <v>3565.53</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -6979,7 +7034,7 @@
         <v>5255.39</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -6993,7 +7048,7 @@
         <v>60.81</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -7007,7 +7062,7 @@
         <v>2515.14</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -7021,7 +7076,7 @@
         <v>3481.46</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -7035,7 +7090,7 @@
         <v>5258.04</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -7049,7 +7104,7 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -7063,7 +7118,7 @@
         <v>2523.88</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -7077,7 +7132,7 @@
         <v>3614.92</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -7091,7 +7146,7 @@
         <v>5282.19</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -7105,7 +7160,7 @@
         <v>62.86</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -7119,7 +7174,7 @@
         <v>2546.27</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -7133,7 +7188,7 @@
         <v>3619.83</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -7147,7 +7202,7 @@
         <v>5340.1</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -7161,7 +7216,7 @@
         <v>63.27</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -7175,7 +7230,7 @@
         <v>2546.37</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -7189,7 +7244,7 @@
         <v>3427.81</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -7203,7 +7258,7 @@
         <v>5397.95</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -7217,7 +7272,7 @@
         <v>64.87</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -7231,7 +7286,7 @@
         <v>2557.46</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -7245,7 +7300,7 @@
         <v>3475.3</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -7259,7 +7314,7 @@
         <v>5491.75</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -7273,7 +7328,7 @@
         <v>64.53</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -7287,7 +7342,7 @@
         <v>2576.08</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -7301,7 +7356,7 @@
         <v>3601.34</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -7315,7 +7370,7 @@
         <v>5552.75</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -7326,10 +7381,10 @@
         <v>4</v>
       </c>
       <c r="D495">
-        <v>65.56999999999999</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -7343,7 +7398,7 @@
         <v>2622.71</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -7357,7 +7412,7 @@
         <v>3549.73</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -7371,7 +7426,7 @@
         <v>5599.02</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -7382,10 +7437,10 @@
         <v>4</v>
       </c>
       <c r="D499">
-        <v>66.81999999999999</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
+        <v>66.819999999999993</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -7399,7 +7454,7 @@
         <v>2666.27</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -7413,7 +7468,7 @@
         <v>3604.4</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -7427,7 +7482,7 @@
         <v>5728.1</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -7441,7 +7496,7 @@
         <v>67.89</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -7455,7 +7510,7 @@
         <v>2729.15</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -7469,7 +7524,7 @@
         <v>3708.32</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -7483,7 +7538,7 @@
         <v>5626.82</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -7497,7 +7552,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -7511,7 +7566,7 @@
         <v>2670.74</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -7525,7 +7580,7 @@
         <v>3681.84</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -7539,7 +7594,7 @@
         <v>5654.58</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -7550,10 +7605,10 @@
         <v>4</v>
       </c>
       <c r="D511">
-        <v>66.81999999999999</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
+        <v>66.819999999999993</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -7567,7 +7622,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -7581,7 +7636,7 @@
         <v>3644.6</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -7595,7 +7650,7 @@
         <v>5594.93</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -7606,10 +7661,10 @@
         <v>4</v>
       </c>
       <c r="D515">
-        <v>67.04000000000001</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
+        <v>67.040000000000006</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -7623,7 +7678,7 @@
         <v>2653.72</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -7637,7 +7692,7 @@
         <v>3491.74</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -7651,7 +7706,7 @@
         <v>5634.89</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -7665,7 +7720,7 @@
         <v>67.41</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -7679,7 +7734,7 @@
         <v>2700.97</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -7693,7 +7748,7 @@
         <v>3601.29</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -7707,7 +7762,7 @@
         <v>5663.03</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -7718,10 +7773,10 @@
         <v>4</v>
       </c>
       <c r="D523">
-        <v>67.15000000000001</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
+        <v>67.150000000000006</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -7735,7 +7790,7 @@
         <v>2736.86</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -7749,7 +7804,7 @@
         <v>3708.09</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -7763,7 +7818,7 @@
         <v>5673.24</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -7774,10 +7829,10 @@
         <v>4</v>
       </c>
       <c r="D527">
-        <v>70.29000000000001</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
+        <v>70.290000000000006</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -7791,7 +7846,7 @@
         <v>2807.57</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -7805,7 +7860,7 @@
         <v>3708.66</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -7819,7 +7874,7 @@
         <v>5679.65</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -7830,10 +7885,10 @@
         <v>4</v>
       </c>
       <c r="D531">
-        <v>72.01000000000001</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
+        <v>72.010000000000005</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -7847,7 +7902,7 @@
         <v>2840.26</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -7861,7 +7916,7 @@
         <v>3683.32</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -7875,7 +7930,7 @@
         <v>5684.58</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -7889,7 +7944,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -7903,7 +7958,7 @@
         <v>2831.21</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -7917,7 +7972,7 @@
         <v>3703.03</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -7931,7 +7986,7 @@
         <v>5791.28</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -7945,7 +8000,7 @@
         <v>72.97</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -7959,7 +8014,7 @@
         <v>2882.44</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -7973,7 +8028,7 @@
         <v>3864.76</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -7987,7 +8042,7 @@
         <v>5770.07</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -7998,10 +8053,10 @@
         <v>4</v>
       </c>
       <c r="D543">
-        <v>73.06999999999999</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
+        <v>73.069999999999993</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -8015,7 +8070,7 @@
         <v>2877.22</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -8029,7 +8084,7 @@
         <v>3823.64</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -8043,7 +8098,7 @@
         <v>5742.41</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -8057,7 +8112,7 @@
         <v>73.16</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -8071,7 +8126,7 @@
         <v>2818.75</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -8085,7 +8140,7 @@
         <v>3768.99</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -8099,7 +8154,7 @@
         <v>5703.95</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -8113,7 +8168,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -8127,7 +8182,7 @@
         <v>2795.82</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -8141,7 +8196,7 @@
         <v>3776.25</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -8155,7 +8210,7 @@
         <v>5677.34</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -8169,7 +8224,7 @@
         <v>71.23</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -8183,7 +8238,7 @@
         <v>2786.53</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -8197,7 +8252,7 @@
         <v>3727.93</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -8211,7 +8266,7 @@
         <v>5670.57</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -8225,7 +8280,7 @@
         <v>71.09</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -8239,7 +8294,7 @@
         <v>2799.53</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -8253,7 +8308,7 @@
         <v>3734.64</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -8267,7 +8322,7 @@
         <v>5691.04</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -8278,10 +8333,10 @@
         <v>4</v>
       </c>
       <c r="D563">
-        <v>71.40000000000001</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -8295,7 +8350,7 @@
         <v>2778.52</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -8309,7 +8364,7 @@
         <v>3629.44</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -8323,7 +8378,7 @@
         <v>5690.18</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -8334,10 +8389,10 @@
         <v>4</v>
       </c>
       <c r="D567">
-        <v>73.15000000000001</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
+        <v>73.150000000000006</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -8351,7 +8406,7 @@
         <v>2802.17</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -8365,7 +8420,7 @@
         <v>3644.57</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -8379,7 +8434,7 @@
         <v>5754.79</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -8393,7 +8448,7 @@
         <v>71.34</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -8407,7 +8462,7 @@
         <v>2747.46</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -8421,7 +8476,7 @@
         <v>3654.45</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -8435,7 +8490,7 @@
         <v>5814.7</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -8449,7 +8504,7 @@
         <v>71.86</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -8463,7 +8518,7 @@
         <v>2800.17</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -8477,7 +8532,7 @@
         <v>3759.13</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -8491,7 +8546,7 @@
         <v>5812.21</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -8505,7 +8560,7 @@
         <v>73.17</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -8519,7 +8574,7 @@
         <v>2775.96</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -8533,7 +8588,7 @@
         <v>3695.31</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -8547,7 +8602,7 @@
         <v>5861.9</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -8558,10 +8613,10 @@
         <v>4</v>
       </c>
       <c r="D583">
-        <v>73.59999999999999</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -8575,7 +8630,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -8589,7 +8644,7 @@
         <v>3750.75</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -8603,7 +8658,7 @@
         <v>5900.12</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -8617,7 +8672,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -8631,7 +8686,7 @@
         <v>2807.33</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -8645,7 +8700,7 @@
         <v>3810.17</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -8659,7 +8714,7 @@
         <v>6030.71</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -8673,7 +8728,7 @@
         <v>72.81</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -8687,7 +8742,7 @@
         <v>2853.21</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -8701,7 +8756,7 @@
         <v>3905.7</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -8715,7 +8770,7 @@
         <v>5966.82</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -8726,10 +8781,10 @@
         <v>4</v>
       </c>
       <c r="D595">
-        <v>72.26000000000001</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4">
+        <v>72.260000000000005</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -8743,7 +8798,7 @@
         <v>2872.67</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -8757,7 +8812,7 @@
         <v>3895.1</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -8771,7 +8826,7 @@
         <v>6032.48</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -8782,10 +8837,10 @@
         <v>4</v>
       </c>
       <c r="D599">
-        <v>72.15000000000001</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4">
+        <v>72.150000000000006</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -8799,7 +8854,7 @@
         <v>2837.12</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -8813,7 +8868,7 @@
         <v>3801.61</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -8827,7 +8882,7 @@
         <v>6013.6</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -8838,10 +8893,10 @@
         <v>4</v>
       </c>
       <c r="D603">
-        <v>71.01000000000001</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4">
+        <v>71.010000000000005</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -8855,7 +8910,7 @@
         <v>2796.08</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -8869,7 +8924,7 @@
         <v>3821.93</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -8883,7 +8938,7 @@
         <v>6065.07</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -8894,10 +8949,10 @@
         <v>4</v>
       </c>
       <c r="D607">
-        <v>71.98999999999999</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4">
+        <v>71.989999999999995</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -8911,7 +8966,7 @@
         <v>2844.83</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -8925,7 +8980,7 @@
         <v>4006.76</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -8939,7 +8994,7 @@
         <v>6223.49</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -8950,10 +9005,10 @@
         <v>4</v>
       </c>
       <c r="D611">
-        <v>73.70999999999999</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4">
+        <v>73.709999999999994</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -8967,7 +9022,7 @@
         <v>2959.39</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -8978,10 +9033,10 @@
         <v>6</v>
       </c>
       <c r="D613">
-        <v>4301.02</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4">
+        <v>4301.0200000000004</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -8995,7 +9050,7 @@
         <v>5962.88</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -9006,10 +9061,10 @@
         <v>4</v>
       </c>
       <c r="D615">
-        <v>71.18000000000001</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4">
+        <v>71.180000000000007</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -9023,7 +9078,7 @@
         <v>2825.22</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -9037,7 +9092,7 @@
         <v>3993.53</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -9051,7 +9106,7 @@
         <v>5919.3</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -9062,10 +9117,10 @@
         <v>4</v>
       </c>
       <c r="D619">
-        <v>69.68000000000001</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4">
+        <v>69.680000000000007</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -9079,7 +9134,7 @@
         <v>2767.12</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -9093,7 +9148,7 @@
         <v>3873.96</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -9107,7 +9162,7 @@
         <v>5739.26</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -9118,10 +9173,10 @@
         <v>4</v>
       </c>
       <c r="D623">
-        <v>68.40000000000001</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -9135,7 +9190,7 @@
         <v>2673.42</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -9149,7 +9204,7 @@
         <v>3671.05</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -9163,7 +9218,7 @@
         <v>5694.79</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -9174,10 +9229,10 @@
         <v>4</v>
       </c>
       <c r="D627">
-        <v>68.18000000000001</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4">
+        <v>68.180000000000007</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -9191,7 +9246,7 @@
         <v>2732.76</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -9205,7 +9260,7 @@
         <v>3702.73</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -9219,7 +9274,7 @@
         <v>5731.75</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -9233,7 +9288,7 @@
         <v>68.98</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -9247,7 +9302,7 @@
         <v>2736.18</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -9261,7 +9316,7 @@
         <v>3719.87</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -9275,7 +9330,7 @@
         <v>5718.64</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -9289,7 +9344,7 @@
         <v>69.23</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -9303,7 +9358,7 @@
         <v>2756.67</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -9317,7 +9372,64 @@
         <v>3752.21</v>
       </c>
     </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2">
+        <v>45162</v>
+      </c>
+      <c r="C638" t="s">
+        <v>3</v>
+      </c>
+      <c r="D638">
+        <v>5747.11</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2">
+        <v>45162</v>
+      </c>
+      <c r="C639" t="s">
+        <v>4</v>
+      </c>
+      <c r="D639">
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2">
+        <v>45162</v>
+      </c>
+      <c r="C640" t="s">
+        <v>5</v>
+      </c>
+      <c r="D640">
+        <v>2817.76</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2">
+        <v>45162</v>
+      </c>
+      <c r="C641" t="s">
+        <v>6</v>
+      </c>
+      <c r="D641">
+        <v>3913.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cb_metall" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cb_metall" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D641"/>
+  <dimension ref="A1:D645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10694,6 +10694,70 @@
         <v>3913.9</v>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>5817.13</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>2819.56</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>3890.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D645"/>
+  <dimension ref="A1:D649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10758,6 +10758,70 @@
         <v>3890.94</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>5837.51</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>73.64</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>2841.03</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>3788.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D649"/>
+  <dimension ref="A1:D653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10822,6 +10822,70 @@
         <v>3788.04</v>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>5879.6</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>74.23999999999999</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D652" t="n">
+        <v>2912.94</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>3784.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D653"/>
+  <dimension ref="A1:D657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10886,6 +10886,70 @@
         <v>3784.67</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>5894.09</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>74.42</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>2920.12</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>3794</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D657"/>
+  <dimension ref="A1:D661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10950,6 +10950,70 @@
         <v>3794</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>5952.44</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D659" t="n">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>3019.4</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>3775.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D661"/>
+  <dimension ref="A1:D665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11014,6 +11014,70 @@
         <v>3775.02</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D662" t="n">
+        <v>6031.99</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D663" t="n">
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D664" t="n">
+        <v>3047.67</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D665" t="n">
+        <v>3831.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D665"/>
+  <dimension ref="A1:D669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11078,6 +11078,70 @@
         <v>3831.26</v>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D666" t="n">
+        <v>6016.15</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D667" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>3035.49</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>3794.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D669"/>
+  <dimension ref="A1:D673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11142,6 +11142,70 @@
         <v>3794.36</v>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D670" t="n">
+        <v>6028.12</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>3053.59</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D673" t="n">
+        <v>3811.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:D677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11206,6 +11206,70 @@
         <v>3811.55</v>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>6074.92</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>75.37</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>3010.49</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>3860.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D677"/>
+  <dimension ref="A1:D681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11270,6 +11270,70 @@
         <v>3860.33</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>6059.03</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D679" t="n">
+        <v>74.06999999999999</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D680" t="n">
+        <v>2972.74</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>3790.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D681"/>
+  <dimension ref="A1:D685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11334,6 +11334,70 @@
         <v>3790.63</v>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>6068.06</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>2888.72</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>3791.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D685"/>
+  <dimension ref="A1:D689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11398,6 +11398,70 @@
         <v>3791.65</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>6039.6</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D687" t="n">
+        <v>72.44</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>2846.09</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>3800.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D689"/>
+  <dimension ref="A1:D693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11462,6 +11462,70 @@
         <v>3800.04</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>5981.6</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>71.40000000000001</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>2792.53</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>3745.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D693"/>
+  <dimension ref="A1:D697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11526,6 +11526,70 @@
         <v>3745.09</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D694" t="n">
+        <v>5861.06</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>70.34999999999999</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>2749.44</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>3699.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D697"/>
+  <dimension ref="A1:D701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11590,6 +11590,70 @@
         <v>3699.41</v>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>5889.42</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>70.66</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>2777.23</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D701" t="n">
+        <v>3740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D701"/>
+  <dimension ref="A1:D705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11654,6 +11654,70 @@
         <v>3740</v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>5916.79</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>70.81</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>2785.57</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>3815.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D705"/>
+  <dimension ref="A1:D709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11718,6 +11718,70 @@
         <v>3815.09</v>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>5908.45</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>70.34</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>2805.48</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>3911.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D709"/>
+  <dimension ref="A1:D713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11782,6 +11782,70 @@
         <v>3911.52</v>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>5989.9</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>71.65000000000001</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>2880.45</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>3946.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D713"/>
+  <dimension ref="A1:D717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11846,6 +11846,70 @@
         <v>3946.24</v>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>5950.65</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>71.76000000000001</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>2892.57</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>3857.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D717"/>
+  <dimension ref="A1:D721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11910,6 +11910,70 @@
         <v>3857.79</v>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>6010.4</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>72.47</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>2944.78</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>3951.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D721"/>
+  <dimension ref="A1:D725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11974,6 +11974,70 @@
         <v>3951.23</v>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>6002.85</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>71.89</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>2912.85</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>3990.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D725"/>
+  <dimension ref="A1:D729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12038,6 +12038,70 @@
         <v>3990.88</v>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>5913.17</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>71.76000000000001</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>2831.53</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>3835.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D729"/>
+  <dimension ref="A1:D733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12102,6 +12102,70 @@
         <v>3835.07</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>5957.73</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>2905.68</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>3941.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D733"/>
+  <dimension ref="A1:D737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12166,6 +12166,70 @@
         <v>3941.22</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>5955.71</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>2843.49</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>3839.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D737"/>
+  <dimension ref="A1:D741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12230,6 +12230,70 @@
         <v>3839.8</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>5916.71</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>71.41</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>2810.91</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>3763.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D741"/>
+  <dimension ref="A1:D745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12294,6 +12294,70 @@
         <v>3763.39</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>5885.88</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>71.06999999999999</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>2822.4</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>3870.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D745"/>
+  <dimension ref="A1:D749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12358,6 +12358,70 @@
         <v>3870.28</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>5867.87</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>70.63</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>2821.89</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D749" t="n">
+        <v>3899.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D749"/>
+  <dimension ref="A1:D753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12422,6 +12422,70 @@
         <v>3899.28</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D750" t="n">
+        <v>5922.29</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D751" t="n">
+        <v>73.06</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D752" t="n">
+        <v>2922.36</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D753" t="n">
+        <v>4081.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D753"/>
+  <dimension ref="A1:D757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12486,6 +12486,70 @@
         <v>4081.17</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D754" t="n">
+        <v>5850.23</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D755" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D756" t="n">
+        <v>2875.57</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D757" t="n">
+        <v>3874.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D757"/>
+  <dimension ref="A1:D761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12550,6 +12550,70 @@
         <v>3874.52</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D758" t="n">
+        <v>5827.4</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D759" t="n">
+        <v>67.31999999999999</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D760" t="n">
+        <v>2817.06</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D761" t="n">
+        <v>3782.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D761"/>
+  <dimension ref="A1:D765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12614,6 +12614,70 @@
         <v>3782.72</v>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D762" t="n">
+        <v>5829.12</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D763" t="n">
+        <v>67.63</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D764" t="n">
+        <v>2800.87</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D765" t="n">
+        <v>3771.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D765"/>
+  <dimension ref="A1:D769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12678,6 +12678,70 @@
         <v>3771.89</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>5878.39</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>68.27</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D768" t="n">
+        <v>2791.46</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D769" t="n">
+        <v>3738.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D769"/>
+  <dimension ref="A1:D773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12742,6 +12742,70 @@
         <v>3738.11</v>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D770" t="n">
+        <v>5929.7</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D771" t="n">
+        <v>68.81</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D772" t="n">
+        <v>2796.04</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>3734.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D773"/>
+  <dimension ref="A1:D777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12806,6 +12806,70 @@
         <v>3734.57</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D774" t="n">
+        <v>5929.55</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D775" t="n">
+        <v>69.56</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D776" t="n">
+        <v>2827.42</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D777" t="n">
+        <v>3637.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D777"/>
+  <dimension ref="A1:D781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12870,6 +12870,70 @@
         <v>3637.09</v>
       </c>
     </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>5969.24</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D779" t="n">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D780" t="n">
+        <v>2848.01</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D781" t="n">
+        <v>3629.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D781"/>
+  <dimension ref="A1:D785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12934,6 +12934,70 @@
         <v>3629.12</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D782" t="n">
+        <v>5971.66</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D783" t="n">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D784" t="n">
+        <v>2755.62</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>3568.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D785"/>
+  <dimension ref="A1:D793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12939,7 +12939,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C782" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>5971.66</v>
+        <v>5835.41</v>
       </c>
     </row>
     <row r="783">
@@ -12955,7 +12955,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>69.06</v>
+        <v>68.81999999999999</v>
       </c>
     </row>
     <row r="784">
@@ -12971,7 +12971,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>2755.62</v>
+        <v>2744.24</v>
       </c>
     </row>
     <row r="785">
@@ -12987,14 +12987,142 @@
         <v>783</v>
       </c>
       <c r="B785" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>3623.64</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D786" t="n">
+        <v>5862.82</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D787" t="n">
+        <v>69.27</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D788" t="n">
+        <v>2762.47</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D789" t="n">
+        <v>3641.58</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="C785" t="inlineStr">
-        <is>
-          <t>palladium</t>
-        </is>
-      </c>
-      <c r="D785" t="n">
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>5971.66</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>2755.62</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
         <v>3568.86</v>
       </c>
     </row>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D793"/>
+  <dimension ref="A1:D797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13126,6 +13126,70 @@
         <v>3568.86</v>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>6002.99</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>70.72</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>2763.56</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>3552.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D797"/>
+  <dimension ref="A1:D801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13190,6 +13190,70 @@
         <v>3552.25</v>
       </c>
     </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>6036.41</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>2801.88</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>3553.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D801"/>
+  <dimension ref="A1:D805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13254,6 +13254,70 @@
         <v>3553.22</v>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>6118.41</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D803" t="n">
+        <v>72.61</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D804" t="n">
+        <v>2809.4</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D805" t="n">
+        <v>3535.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D805"/>
+  <dimension ref="A1:D809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13318,6 +13318,70 @@
         <v>3535.21</v>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D806" t="n">
+        <v>6023.62</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D807" t="n">
+        <v>70.56</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D808" t="n">
+        <v>2738.08</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D809" t="n">
+        <v>3413.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D809"/>
+  <dimension ref="A1:D813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13382,6 +13382,70 @@
         <v>3413.35</v>
       </c>
     </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D810" t="n">
+        <v>6054.85</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D811" t="n">
+        <v>70.69</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D812" t="n">
+        <v>2725.22</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D813" t="n">
+        <v>3352.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D817"/>
+  <dimension ref="A1:D821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13510,6 +13510,70 @@
         <v>3346.58</v>
       </c>
     </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D818" t="n">
+        <v>5880.86</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D819" t="n">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D820" t="n">
+        <v>2656.44</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D821" t="n">
+        <v>3354.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D821"/>
+  <dimension ref="A1:D825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13574,6 +13574,70 @@
         <v>3354.25</v>
       </c>
     </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D822" t="n">
+        <v>5965.91</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D823" t="n">
+        <v>68.61</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D824" t="n">
+        <v>2695.23</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D825" t="n">
+        <v>3417.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D825"/>
+  <dimension ref="A1:D829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13638,6 +13638,70 @@
         <v>3417.17</v>
       </c>
     </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D826" t="n">
+        <v>5919.09</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D827" t="n">
+        <v>68.84</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D828" t="n">
+        <v>2733.27</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D829" t="n">
+        <v>3365.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D829"/>
+  <dimension ref="A1:D833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13702,6 +13702,70 @@
         <v>3365.64</v>
       </c>
     </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D830" t="n">
+        <v>5944.43</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D831" t="n">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D832" t="n">
+        <v>2707.05</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D833" t="n">
+        <v>3414.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D833"/>
+  <dimension ref="A1:D837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13766,6 +13766,70 @@
         <v>3414.55</v>
       </c>
     </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D834" t="n">
+        <v>5910.09</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D835" t="n">
+        <v>68.48999999999999</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D836" t="n">
+        <v>2742.62</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D837" t="n">
+        <v>3390.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D837"/>
+  <dimension ref="A1:D841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13830,6 +13830,70 @@
         <v>3390.55</v>
       </c>
     </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D838" t="n">
+        <v>5988.75</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D839" t="n">
+        <v>69.58</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D840" t="n">
+        <v>2819.08</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D841" t="n">
+        <v>3406.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D841"/>
+  <dimension ref="A1:D845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13894,6 +13894,70 @@
         <v>3406.89</v>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D842" t="n">
+        <v>5950.27</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D843" t="n">
+        <v>67.91</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D844" t="n">
+        <v>2782.89</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D845" t="n">
+        <v>3382.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D845"/>
+  <dimension ref="A1:D849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13958,6 +13958,70 @@
         <v>3382.01</v>
       </c>
     </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D846" t="n">
+        <v>5933.24</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D847" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D848" t="n">
+        <v>2754.85</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D849" t="n">
+        <v>3341.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D849"/>
+  <dimension ref="A1:D853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14022,6 +14022,70 @@
         <v>3341.11</v>
       </c>
     </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D850" t="n">
+        <v>5896.67</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D851" t="n">
+        <v>68.95999999999999</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D852" t="n">
+        <v>2754.31</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D853" t="n">
+        <v>3336.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D853"/>
+  <dimension ref="A1:D857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14086,6 +14086,70 @@
         <v>3336.67</v>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D854" t="n">
+        <v>5811.93</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D855" t="n">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D856" t="n">
+        <v>2664.82</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D857" t="n">
+        <v>3171.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D857"/>
+  <dimension ref="A1:D861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14150,6 +14150,70 @@
         <v>3171.7</v>
       </c>
     </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D858" t="n">
+        <v>5790.87</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D859" t="n">
+        <v>66.31999999999999</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D860" t="n">
+        <v>2600.85</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D861" t="n">
+        <v>3002.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D861"/>
+  <dimension ref="A1:D865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14214,6 +14214,70 @@
         <v>3002.79</v>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D862" t="n">
+        <v>5793.24</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D863" t="n">
+        <v>66.73999999999999</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D864" t="n">
+        <v>2568.92</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D865" t="n">
+        <v>3033.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D865"/>
+  <dimension ref="A1:D869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14278,6 +14278,70 @@
         <v>3033.58</v>
       </c>
     </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>5750.54</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>66.62</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>2570.74</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>3035.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D869"/>
+  <dimension ref="A1:D873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14342,6 +14342,70 @@
         <v>3035.72</v>
       </c>
     </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D870" t="n">
+        <v>5665.95</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D871" t="n">
+        <v>64.77</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D872" t="n">
+        <v>2493.88</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D873" t="n">
+        <v>2825.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D873"/>
+  <dimension ref="A1:D877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14406,6 +14406,70 @@
         <v>2825.42</v>
       </c>
     </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>5663.17</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>64.28</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>2522.33</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>2876.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D877"/>
+  <dimension ref="A1:D881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14470,6 +14470,70 @@
         <v>2876.09</v>
       </c>
     </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>5599.86</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>66.95</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>2565.15</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>2919.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D881"/>
+  <dimension ref="A1:D885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14534,6 +14534,70 @@
         <v>2919.75</v>
       </c>
     </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>5673.76</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>67.81999999999999</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>2578.85</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>2954.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D885"/>
+  <dimension ref="A1:D889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14598,6 +14598,70 @@
         <v>2954.22</v>
       </c>
     </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>5636.47</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>68.27</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>2563.52</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>2959</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D889"/>
+  <dimension ref="A1:D893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14662,6 +14662,70 @@
         <v>2959</v>
       </c>
     </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>5561.75</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>66.06</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>2539.75</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>3031.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D897"/>
+  <dimension ref="A1:D901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14790,6 +14790,70 @@
         <v>3047.15</v>
       </c>
     </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>5659.34</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>67.53</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>2637.65</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>3020.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D901"/>
+  <dimension ref="A1:D905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14854,6 +14854,70 @@
         <v>3020.13</v>
       </c>
     </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>5690.41</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>67.54000000000001</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>2629.83</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>3018.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D905"/>
+  <dimension ref="A1:D909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14918,6 +14918,70 @@
         <v>3018.17</v>
       </c>
     </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>5706.25</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>2612.35</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>2988.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D909"/>
+  <dimension ref="A1:D913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14982,6 +14982,70 @@
         <v>2988.81</v>
       </c>
     </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>5736.79</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>70.52</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>2632.37</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>3031.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D913"/>
+  <dimension ref="A1:D917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15046,6 +15046,70 @@
         <v>3031.21</v>
       </c>
     </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>5788.68</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>70.44</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>2651.93</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>3026.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D917"/>
+  <dimension ref="A1:D921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15110,6 +15110,70 @@
         <v>3026.29</v>
       </c>
     </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>5829.66</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>71.09999999999999</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>2654.31</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>2916.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D921"/>
+  <dimension ref="A1:D925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15174,6 +15174,70 @@
         <v>2916.32</v>
       </c>
     </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>5874.13</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>72.20999999999999</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>2704.1</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>2958.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D925"/>
+  <dimension ref="A1:D929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15238,6 +15238,70 @@
         <v>2958.06</v>
       </c>
     </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>5962.74</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>73.34999999999999</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>2708.22</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>2941.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D929"/>
+  <dimension ref="A1:D933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15302,6 +15302,70 @@
         <v>2941.43</v>
       </c>
     </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>6033.3</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>2738.33</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>2861.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D933"/>
+  <dimension ref="A1:D937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15366,6 +15366,70 @@
         <v>2861.99</v>
       </c>
     </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>6035.71</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>72.40000000000001</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>2708.59</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>2878.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D937"/>
+  <dimension ref="A1:D941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15430,6 +15430,70 @@
         <v>2878.62</v>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>6030.66</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>71.70999999999999</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>2693.32</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>2848.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D941"/>
+  <dimension ref="A1:D945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15494,6 +15494,70 @@
         <v>2848.07</v>
       </c>
     </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>5971.85</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>2678.19</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>2875.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D945"/>
+  <dimension ref="A1:D949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15558,6 +15558,70 @@
         <v>2875.59</v>
       </c>
     </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>5874.14</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>69.59</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>2682.43</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>2852.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D949"/>
+  <dimension ref="A1:D953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15622,6 +15622,70 @@
         <v>2852.09</v>
       </c>
     </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>5762.28</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>66.48</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>2685.87</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>2778.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D953"/>
+  <dimension ref="A1:D957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15686,6 +15686,70 @@
         <v>2778.68</v>
       </c>
     </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>5724.88</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>66.34</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>2661.79</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>2832.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D957"/>
+  <dimension ref="A1:D961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15750,6 +15750,70 @@
         <v>2832.31</v>
       </c>
     </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>5715.72</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>65.52</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>2661.09</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>2822.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D961"/>
+  <dimension ref="A1:D965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15814,6 +15814,70 @@
         <v>2822.54</v>
       </c>
     </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>5900.56</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>69.18000000000001</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D964" t="n">
+        <v>2722.32</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D965" t="n">
+        <v>2976.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D965"/>
+  <dimension ref="A1:D969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15878,6 +15878,70 @@
         <v>2976.09</v>
       </c>
     </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D966" t="n">
+        <v>5907.79</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D967" t="n">
+        <v>70.31999999999999</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>2749.97</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>3284.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D969"/>
+  <dimension ref="A1:D973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15942,6 +15942,70 @@
         <v>3284.85</v>
       </c>
     </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>5862.09</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>69.31999999999999</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>2774.71</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>3423.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D973"/>
+  <dimension ref="A1:D977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16006,6 +16006,70 @@
         <v>3423.5</v>
       </c>
     </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>5933.4</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>2761.28</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>3490.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D981"/>
+  <dimension ref="A1:D985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16134,6 +16134,70 @@
         <v>3600.02</v>
       </c>
     </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>6035.07</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>71.48999999999999</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>2831.75</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>3570.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D985"/>
+  <dimension ref="A1:D989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16198,6 +16198,70 @@
         <v>3570.73</v>
       </c>
     </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>6078.14</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>72.33</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>2868.16</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>3616.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D993"/>
+  <dimension ref="A1:D997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16326,6 +16326,70 @@
         <v>3605.95</v>
       </c>
     </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>6060.7</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>72.12</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>2859.93</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>3605.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D997"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16390,6 +16390,70 @@
         <v>3605.88</v>
       </c>
     </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>6008.18</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>2833.66</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>3408.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_metall.xlsx
+++ b/LME/parser_beta/data/cb_metall.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:D1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16454,6 +16454,70 @@
         <v>3408.52</v>
       </c>
     </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>5993.16</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>69.94</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="D1004" t="n">
+        <v>2883.54</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>palladium</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>3275.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
